--- a/sql/Lista.xlsx
+++ b/sql/Lista.xlsx
@@ -412,9 +412,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -422,6 +419,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -703,52 +703,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y114"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="34" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="27.140625" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="209.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -760,16 +760,16 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
@@ -779,38 +779,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>33512939848</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1111</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="6" t="str">
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="5" t="str">
         <f>CONCATENATE(K4,A4,", '",B4,"', '",C4,"', '",D4,"', '",E4,"', '",F4,"', '",G4,"', '",H4,"', '",I4,"');")</f>
         <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'roger', 'roger@email.com', '33512939848', '1111', '1985-06-19', 'e10adc3949ba59abbe56e057f20f883e', '0', '1');</v>
       </c>
@@ -823,19 +823,19 @@
         <v>69</v>
       </c>
       <c r="C5" t="str">
-        <f>B5&amp;"@adm.com.br"</f>
-        <v>Thanos@adm.com.br</v>
+        <f>LOWER(B5&amp;"@adm.com.br")</f>
+        <v>thanos@adm.com.br</v>
       </c>
       <c r="D5" s="3">
         <v>99881683149</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>2395</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H5">
@@ -844,12 +844,12 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="6" t="str">
-        <f t="shared" ref="L5:L54" si="0">CONCATENATE(K5,A5,", '",B5,"', '",C5,"', '",D5,"', '",E5,"', '",F5,"', '",G5,"', '",H5,"', '",I5,"');")</f>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Thanos', 'Thanos@adm.com.br', '99881683149', '2395', '1990-05-18', 'e10adc3949ba59abbe56e057f20f883e', '0', '1');</v>
+      <c r="K5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ref="L5:L53" si="0">CONCATENATE(K5,A5,", '",B5,"', '",C5,"', '",D5,"', '",E5,"', '",F5,"', '",G5,"', '",H5,"', '",I5,"');")</f>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Thanos', 'thanos@adm.com.br', '99881683149', '2395', '1990-05-18', 'e10adc3949ba59abbe56e057f20f883e', '0', '1');</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -859,20 +859,20 @@
       <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="6" t="str">
-        <f t="shared" ref="C6:C9" si="1">B6&amp;"@adm.com.br"</f>
-        <v>Luff@adm.com.br</v>
+      <c r="C6" s="5" t="str">
+        <f t="shared" ref="C6:C53" si="1">LOWER(B6&amp;"@adm.com.br")</f>
+        <v>luff@adm.com.br</v>
       </c>
       <c r="D6" s="3">
         <v>99283204115</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1644</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H6">
@@ -881,12 +881,12 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Luff', 'Luff@adm.com.br', '99283204115', '1644', '2003-11-25', 'e10adc3949ba59abbe56e057f20f883e', '0', '1');</v>
+      <c r="K6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Luff', 'luff@adm.com.br', '99283204115', '1644', '2003-11-25', 'e10adc3949ba59abbe56e057f20f883e', '0', '1');</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -896,20 +896,20 @@
       <c r="B7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Thor@adm.com.br</v>
+      <c r="C7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>thor@adm.com.br</v>
       </c>
       <c r="D7" s="3">
         <v>98189271172</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>2407</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H7">
@@ -918,12 +918,12 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Thor', 'Thor@adm.com.br', '98189271172', '2407', '1996-04-06', 'e10adc3949ba59abbe56e057f20f883e', '0', '1');</v>
+      <c r="K7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Thor', 'thor@adm.com.br', '98189271172', '2407', '1996-04-06', 'e10adc3949ba59abbe56e057f20f883e', '0', '1');</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -933,20 +933,20 @@
       <c r="B8" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Stark@adm.com.br</v>
+      <c r="C8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>stark@adm.com.br</v>
       </c>
       <c r="D8" s="3">
         <v>98047426168</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>2396</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H8">
@@ -955,12 +955,12 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Stark', 'Stark@adm.com.br', '98047426168', '2396', '1997-08-25', 'e10adc3949ba59abbe56e057f20f883e', '0', '1');</v>
+      <c r="K8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Stark', 'stark@adm.com.br', '98047426168', '2396', '1997-08-25', 'e10adc3949ba59abbe56e057f20f883e', '0', '1');</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -970,20 +970,20 @@
       <c r="B9" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Odin@adm.com.br</v>
+      <c r="C9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>odin@adm.com.br</v>
       </c>
       <c r="D9" s="3">
         <v>97614173104</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2343</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H9">
@@ -992,12 +992,12 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Odin', 'Odin@adm.com.br', '97614173104', '2343', '2003-10-21', 'e10adc3949ba59abbe56e057f20f883e', '0', '1');</v>
+      <c r="K9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Odin', 'odin@adm.com.br', '97614173104', '2343', '2003-10-21', 'e10adc3949ba59abbe56e057f20f883e', '0', '1');</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1007,34 +1007,34 @@
       <c r="B10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="6" t="str">
-        <f>B10&amp;"@admg.com.br"</f>
-        <v>Miles@admg.com.br</v>
+      <c r="C10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>miles@adm.com.br</v>
       </c>
       <c r="D10" s="3">
         <v>97200581100</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>2374</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Miles', 'Miles@admg.com.br', '97200581100', '2374', '1994-05-03', 'e10adc3949ba59abbe56e057f20f883e', '2', '1');</v>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Miles', 'miles@adm.com.br', '97200581100', '2374', '1994-05-03', 'e10adc3949ba59abbe56e057f20f883e', '2', '1');</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -1044,34 +1044,34 @@
       <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="6" t="str">
-        <f t="shared" ref="C11:C14" si="2">B11&amp;"@admg.com.br"</f>
-        <v>Zeus@admg.com.br</v>
+      <c r="C11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>zeus@adm.com.br</v>
       </c>
       <c r="D11" s="3">
         <v>96765283153</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>2056</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Zeus', 'Zeus@admg.com.br', '96765283153', '2056', '1986-09-04', 'e10adc3949ba59abbe56e057f20f883e', '2', '1');</v>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Zeus', 'zeus@adm.com.br', '96765283153', '2056', '1986-09-04', 'e10adc3949ba59abbe56e057f20f883e', '2', '1');</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -1081,34 +1081,34 @@
       <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Kratos@admg.com.br</v>
+      <c r="C12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>kratos@adm.com.br</v>
       </c>
       <c r="D12" s="3">
         <v>96668890130</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>2066</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Kratos', 'Kratos@admg.com.br', '96668890130', '2066', '1992-05-19', 'e10adc3949ba59abbe56e057f20f883e', '2', '1');</v>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Kratos', 'kratos@adm.com.br', '96668890130', '2066', '1992-05-19', 'e10adc3949ba59abbe56e057f20f883e', '2', '1');</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -1118,34 +1118,34 @@
       <c r="B13" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Crush@admg.com.br</v>
+      <c r="C13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>crush@adm.com.br</v>
       </c>
       <c r="D13" s="3">
         <v>96132493115</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>2362</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="5">
         <v>2</v>
       </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Crush', 'Crush@admg.com.br', '96132493115', '2362', '2015-03-22', 'e10adc3949ba59abbe56e057f20f883e', '2', '1');</v>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Crush', 'crush@adm.com.br', '96132493115', '2362', '2015-03-22', 'e10adc3949ba59abbe56e057f20f883e', '2', '1');</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -1155,34 +1155,34 @@
       <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Aloi@admg.com.br</v>
+      <c r="C14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>aloi@adm.com.br</v>
       </c>
       <c r="D14" s="3">
         <v>93422300163</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>1954</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Aloi', 'Aloi@admg.com.br', '93422300163', '1954', '1992-07-14', 'e10adc3949ba59abbe56e057f20f883e', '2', '1');</v>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Aloi', 'aloi@adm.com.br', '93422300163', '1954', '1992-07-14', 'e10adc3949ba59abbe56e057f20f883e', '2', '1');</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -1192,34 +1192,34 @@
       <c r="B15" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="6" t="str">
-        <f t="shared" ref="C15:C53" si="3">B15&amp;"@email.com.br"</f>
-        <v>Coraline@email.com.br</v>
+      <c r="C15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>coraline@adm.com.br</v>
       </c>
       <c r="D15" s="3">
         <v>93228066134</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>2332</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Coraline', 'Coraline@email.com.br', '93228066134', '2332', '1988-03-27', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Coraline', 'coraline@adm.com.br', '93228066134', '2332', '1988-03-27', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -1229,34 +1229,34 @@
       <c r="B16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Aline@email.com.br</v>
+      <c r="C16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>aline@adm.com.br</v>
       </c>
       <c r="D16" s="3">
         <v>92075053120</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>1858</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Aline', 'Aline@email.com.br', '92075053120', '1858', '1998-05-20', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Aline', 'aline@adm.com.br', '92075053120', '1858', '1998-05-20', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1266,34 +1266,34 @@
       <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Aime@email.com.br</v>
+      <c r="C17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>aime@adm.com.br</v>
       </c>
       <c r="D17" s="3">
         <v>91495741168</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>2444</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6">
-        <v>1</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Aime', 'Aime@email.com.br', '91495741168', '2444', '1992-10-12', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Aime', 'aime@adm.com.br', '91495741168', '2444', '1992-10-12', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1303,34 +1303,34 @@
       <c r="B18" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Maria@email.com.br</v>
+      <c r="C18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>maria@adm.com.br</v>
       </c>
       <c r="D18" s="3">
         <v>90975790153</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>1664</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Maria', 'Maria@email.com.br', '90975790153', '1664', '1984-07-16', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Maria', 'maria@adm.com.br', '90975790153', '1664', '1984-07-16', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1340,34 +1340,34 @@
       <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Amalia@email.com.br</v>
+      <c r="C19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>amalia@adm.com.br</v>
       </c>
       <c r="D19" s="3">
         <v>89448049153</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>2370</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Amalia', 'Amalia@email.com.br', '89448049153', '2370', '2016-02-12', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Amalia', 'amalia@adm.com.br', '89448049153', '2370', '2016-02-12', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1377,34 +1377,34 @@
       <c r="B20" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Jose@email.com.br</v>
+      <c r="C20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>jose@adm.com.br</v>
       </c>
       <c r="D20" s="3">
         <v>88975096149</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>2453</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Jose', 'Jose@email.com.br', '88975096149', '2453', '1985-01-30', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Jose', 'jose@adm.com.br', '88975096149', '2453', '1985-01-30', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1414,34 +1414,34 @@
       <c r="B21" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Drax@email.com.br</v>
+      <c r="C21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>drax@adm.com.br</v>
       </c>
       <c r="D21" s="3">
         <v>88884252172</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>2323</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Drax', 'Drax@email.com.br', '88884252172', '2323', '1994-06-25', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Drax', 'drax@adm.com.br', '88884252172', '2323', '1994-06-25', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1451,34 +1451,34 @@
       <c r="B22" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Gomora@email.com.br</v>
+      <c r="C22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>gomora@adm.com.br</v>
       </c>
       <c r="D22" s="3">
         <v>88677990100</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>2446</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Gomora', 'Gomora@email.com.br', '88677990100', '2446', '1997-07-16', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Gomora', 'gomora@adm.com.br', '88677990100', '2446', '1997-07-16', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1488,34 +1488,34 @@
       <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Loki@email.com.br</v>
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>loki@adm.com.br</v>
       </c>
       <c r="D23" s="3">
         <v>87100940168</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>2393</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Loki', 'Loki@email.com.br', '87100940168', '2393', '2013-06-28', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Loki', 'loki@adm.com.br', '87100940168', '2393', '2013-06-28', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1525,34 +1525,34 @@
       <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Herschel@email.com.br</v>
+      <c r="C24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>herschel@adm.com.br</v>
       </c>
       <c r="D24" s="3">
         <v>84586753153</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>2408</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Herschel', 'Herschel@email.com.br', '84586753153', '2408', '2012-01-30', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Herschel', 'herschel@adm.com.br', '84586753153', '2408', '2012-01-30', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1562,34 +1562,34 @@
       <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Ketty@email.com.br</v>
+      <c r="C25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>ketty@adm.com.br</v>
       </c>
       <c r="D25" s="3">
         <v>83024506187</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>1917</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Ketty', 'Ketty@email.com.br', '83024506187', '1917', '2013-11-06', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Ketty', 'ketty@adm.com.br', '83024506187', '1917', '2013-11-06', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1599,34 +1599,34 @@
       <c r="B26" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Teach@email.com.br</v>
+      <c r="C26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>teach@adm.com.br</v>
       </c>
       <c r="D26" s="3">
         <v>78477344191</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>2441</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6">
-        <v>1</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Teach', 'Teach@email.com.br', '78477344191', '2441', '2015-02-22', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Teach', 'teach@adm.com.br', '78477344191', '2441', '2015-02-22', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1636,34 +1636,34 @@
       <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Merle@email.com.br</v>
+      <c r="C27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>merle@adm.com.br</v>
       </c>
       <c r="D27" s="3">
         <v>78407621153</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>1841</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6">
-        <v>1</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Merle', 'Merle@email.com.br', '78407621153', '1841', '2000-01-28', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Merle', 'merle@adm.com.br', '78407621153', '1841', '2000-01-28', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1673,34 +1673,34 @@
       <c r="B28" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Ace@email.com.br</v>
+      <c r="C28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>ace@adm.com.br</v>
       </c>
       <c r="D28" s="3">
         <v>77374738153</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>2442</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1</v>
-      </c>
-      <c r="I28" s="6">
-        <v>1</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Ace', 'Ace@email.com.br', '77374738153', '2442', '2001-06-11', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Ace', 'ace@adm.com.br', '77374738153', '2442', '2001-06-11', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1710,34 +1710,34 @@
       <c r="B29" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Usop@email.com.br</v>
+      <c r="C29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>usop@adm.com.br</v>
       </c>
       <c r="D29" s="3">
         <v>76382818100</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>1812</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6">
-        <v>1</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Usop', 'Usop@email.com.br', '76382818100', '1812', '2002-06-19', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Usop', 'usop@adm.com.br', '76382818100', '1812', '2002-06-19', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1747,34 +1747,34 @@
       <c r="B30" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Frank@email.com.br</v>
+      <c r="C30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>frank@adm.com.br</v>
       </c>
       <c r="D30" s="3">
         <v>75446081072</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>1878</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="6">
-        <v>1</v>
-      </c>
-      <c r="I30" s="6">
-        <v>1</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Frank', 'Frank@email.com.br', '75446081072', '1878', '2005-11-08', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Frank', 'frank@adm.com.br', '75446081072', '1878', '2005-11-08', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1784,34 +1784,34 @@
       <c r="B31" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Robin@email.com.br</v>
+      <c r="C31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>robin@adm.com.br</v>
       </c>
       <c r="D31" s="3">
         <v>73873438100</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>2299</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="6">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6">
-        <v>1</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Robin', 'Robin@email.com.br', '73873438100', '2299', '1981-12-02', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Robin', 'robin@adm.com.br', '73873438100', '2299', '1981-12-02', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1821,34 +1821,34 @@
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Chopper@email.com.br</v>
+      <c r="C32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>chopper@adm.com.br</v>
       </c>
       <c r="D32" s="3">
         <v>73068730163</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>2369</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="6">
-        <v>1</v>
-      </c>
-      <c r="I32" s="6">
-        <v>1</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L32" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Chopper', 'Chopper@email.com.br', '73068730163', '2369', '2004-02-22', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Chopper', 'chopper@adm.com.br', '73068730163', '2369', '2004-02-22', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1858,34 +1858,34 @@
       <c r="B33" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Natsu@email.com.br</v>
+      <c r="C33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>natsu@adm.com.br</v>
       </c>
       <c r="D33" s="3">
         <v>70563888172</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>2392</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="6">
-        <v>1</v>
-      </c>
-      <c r="I33" s="6">
-        <v>1</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Natsu', 'Natsu@email.com.br', '70563888172', '2392', '2014-06-14', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Natsu', 'natsu@adm.com.br', '70563888172', '2392', '2014-06-14', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1895,34 +1895,34 @@
       <c r="B34" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Shanx@email.com.br</v>
+      <c r="C34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>shanx@adm.com.br</v>
       </c>
       <c r="D34" s="3">
         <v>70506817172</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>2394</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="6">
-        <v>1</v>
-      </c>
-      <c r="I34" s="6">
-        <v>1</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Shanx', 'Shanx@email.com.br', '70506817172', '2394', '1981-12-15', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Shanx', 'shanx@adm.com.br', '70506817172', '2394', '1981-12-15', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1932,34 +1932,34 @@
       <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Carmine@email.com.br</v>
+      <c r="C35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>carmine@adm.com.br</v>
       </c>
       <c r="D35" s="3">
         <v>65255127191</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>1676</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="6">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6">
-        <v>1</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L35" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Carmine', 'Carmine@email.com.br', '65255127191', '1676', '1989-08-31', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Carmine', 'carmine@adm.com.br', '65255127191', '1676', '1989-08-31', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1969,34 +1969,34 @@
       <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Fenix@email.com.br</v>
+      <c r="C36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>fenix@adm.com.br</v>
       </c>
       <c r="D36" s="3">
         <v>61357553153</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>2433</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="6">
-        <v>1</v>
-      </c>
-      <c r="I36" s="6">
-        <v>1</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L36" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Fenix', 'Fenix@email.com.br', '61357553153', '2433', '1994-08-18', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Fenix', 'fenix@adm.com.br', '61357553153', '2433', '1994-08-18', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2006,34 +2006,34 @@
       <c r="B37" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Marcus@email.com.br</v>
+      <c r="C37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>marcus@adm.com.br</v>
       </c>
       <c r="D37" s="3">
         <v>60037768115</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>2117</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="6">
-        <v>1</v>
-      </c>
-      <c r="I37" s="6">
-        <v>1</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L37" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Marcus', 'Marcus@email.com.br', '60037768115', '2117', '2005-12-25', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Marcus', 'marcus@adm.com.br', '60037768115', '2117', '2005-12-25', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2043,34 +2043,34 @@
       <c r="B38" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Dom@email.com.br</v>
+      <c r="C38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>dom@adm.com.br</v>
       </c>
       <c r="D38" s="3">
         <v>58294341134</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>2086</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="6">
-        <v>1</v>
-      </c>
-      <c r="I38" s="6">
-        <v>1</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Dom', 'Dom@email.com.br', '58294341134', '2086', '1996-05-04', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Dom', 'dom@adm.com.br', '58294341134', '2086', '1996-05-04', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2080,34 +2080,34 @@
       <c r="B39" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Locust@email.com.br</v>
+      <c r="C39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>locust@adm.com.br</v>
       </c>
       <c r="D39" s="3">
         <v>58025561020</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>2427</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="6">
-        <v>1</v>
-      </c>
-      <c r="I39" s="6">
-        <v>1</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L39" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Locust', 'Locust@email.com.br', '58025561020', '2427', '2015-11-02', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Locust', 'locust@adm.com.br', '58025561020', '2427', '2015-11-02', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2117,34 +2117,34 @@
       <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Brook@email.com.br</v>
+      <c r="C40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>brook@adm.com.br</v>
       </c>
       <c r="D40" s="3">
         <v>56215266191</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>2306</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="6">
-        <v>1</v>
-      </c>
-      <c r="I40" s="6">
-        <v>1</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Brook', 'Brook@email.com.br', '56215266191', '2306', '2000-02-04', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Brook', 'brook@adm.com.br', '56215266191', '2306', '2000-02-04', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2154,34 +2154,34 @@
       <c r="B41" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Jack@email.com.br</v>
+      <c r="C41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>jack@adm.com.br</v>
       </c>
       <c r="D41" s="3">
         <v>55813054120</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>2315</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H41" s="6">
-        <v>1</v>
-      </c>
-      <c r="I41" s="6">
-        <v>1</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L41" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Jack', 'Jack@email.com.br', '55813054120', '2315', '1998-01-19', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Jack', 'jack@adm.com.br', '55813054120', '2315', '1998-01-19', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2191,34 +2191,34 @@
       <c r="B42" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Galo@email.com.br</v>
+      <c r="C42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>galo@adm.com.br</v>
       </c>
       <c r="D42" s="3">
         <v>51901811115</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>1937</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" s="6">
-        <v>1</v>
-      </c>
-      <c r="I42" s="6">
-        <v>1</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L42" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Galo', 'Galo@email.com.br', '51901811115', '1937', '1993-11-06', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Galo', 'galo@adm.com.br', '51901811115', '1937', '1993-11-06', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2228,34 +2228,34 @@
       <c r="B43" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Chuck@email.com.br</v>
+      <c r="C43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>chuck@adm.com.br</v>
       </c>
       <c r="D43" s="3">
         <v>51835762115</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>2409</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="6">
-        <v>1</v>
-      </c>
-      <c r="I43" s="6">
-        <v>1</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L43" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Chuck', 'Chuck@email.com.br', '51835762115', '2409', '1985-10-29', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Chuck', 'chuck@adm.com.br', '51835762115', '2409', '1985-10-29', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2265,34 +2265,34 @@
       <c r="B44" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Norris@email.com.br</v>
+      <c r="C44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>norris@adm.com.br</v>
       </c>
       <c r="D44" s="3">
         <v>51827697172</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>2376</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H44" s="6">
-        <v>1</v>
-      </c>
-      <c r="I44" s="6">
-        <v>1</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L44" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Norris', 'Norris@email.com.br', '51827697172', '2376', '1985-05-27', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Norris', 'norris@adm.com.br', '51827697172', '2376', '1985-05-27', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2302,34 +2302,34 @@
       <c r="B45" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Liaa@email.com.br</v>
+      <c r="C45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>liaa@adm.com.br</v>
       </c>
       <c r="D45" s="3">
         <v>51184877815</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>2354</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H45" s="6">
-        <v>1</v>
-      </c>
-      <c r="I45" s="6">
-        <v>1</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L45" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Liaa', 'Liaa@email.com.br', '51184877815', '2354', '1989-10-12', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Liaa', 'liaa@adm.com.br', '51184877815', '2354', '1989-10-12', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2339,34 +2339,34 @@
       <c r="B46" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Lyli@email.com.br</v>
+      <c r="C46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>lyli@adm.com.br</v>
       </c>
       <c r="D46" s="3">
         <v>51110687168</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>1999</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H46" s="6">
-        <v>1</v>
-      </c>
-      <c r="I46" s="6">
-        <v>1</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L46" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Lyli', 'Lyli@email.com.br', '51110687168', '1999', '1981-04-12', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Lyli', 'lyli@adm.com.br', '51110687168', '1999', '1981-04-12', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2376,34 +2376,34 @@
       <c r="B47" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Lars@email.com.br</v>
+      <c r="C47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>lars@adm.com.br</v>
       </c>
       <c r="D47" s="3">
         <v>44783132100</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>2412</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H47" s="6">
-        <v>1</v>
-      </c>
-      <c r="I47" s="6">
-        <v>1</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Lars', 'Lars@email.com.br', '44783132100', '2412', '2003-01-06', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Lars', 'lars@adm.com.br', '44783132100', '2412', '2003-01-06', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2413,34 +2413,34 @@
       <c r="B48" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Uric@email.com.br</v>
+      <c r="C48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>uric@adm.com.br</v>
       </c>
       <c r="D48" s="3">
         <v>43698484153</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>2338</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H48" s="6">
-        <v>1</v>
-      </c>
-      <c r="I48" s="6">
-        <v>1</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L48" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Uric', 'Uric@email.com.br', '43698484153', '2338', '2002-10-09', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Uric', 'uric@adm.com.br', '43698484153', '2338', '2002-10-09', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2450,34 +2450,34 @@
       <c r="B49" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>James@email.com.br</v>
+      <c r="C49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>james@adm.com.br</v>
       </c>
       <c r="D49" s="3">
         <v>43674879115</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>2377</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" s="6">
-        <v>1</v>
-      </c>
-      <c r="I49" s="6">
-        <v>1</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L49" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'James', 'James@email.com.br', '43674879115', '2377', '2010-05-30', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'James', 'james@adm.com.br', '43674879115', '2377', '2010-05-30', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2487,34 +2487,34 @@
       <c r="B50" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Jonathan@email.com.br</v>
+      <c r="C50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>jonathan@adm.com.br</v>
       </c>
       <c r="D50" s="3">
         <v>40485986191</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>2367</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="6">
-        <v>1</v>
-      </c>
-      <c r="I50" s="6">
-        <v>1</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L50" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Jonathan', 'Jonathan@email.com.br', '40485986191', '2367', '1995-04-24', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Jonathan', 'jonathan@adm.com.br', '40485986191', '2367', '1995-04-24', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2524,34 +2524,34 @@
       <c r="B51" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Davis@email.com.br</v>
+      <c r="C51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>davis@adm.com.br</v>
       </c>
       <c r="D51" s="3">
         <v>36725005187</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>2422</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" s="6">
-        <v>1</v>
-      </c>
-      <c r="I51" s="6">
-        <v>1</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L51" s="6" t="str">
+      <c r="G51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L51" s="5" t="str">
         <f>CONCATENATE(K51,A51,", '",B51,"', '",C51,"', '",D51,"', '",E51,"', '",F51,"', '",G51,"', '",H51,"', '",I51,"');")</f>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Davis', 'Davis@email.com.br', '36725005187', '2422', '1995-07-27', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Davis', 'davis@adm.com.br', '36725005187', '2422', '1995-07-27', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2561,34 +2561,34 @@
       <c r="B52" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Jones@email.com.br</v>
+      <c r="C52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>jones@adm.com.br</v>
       </c>
       <c r="D52" s="3">
         <v>34076875915</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>1436</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H52" s="6">
-        <v>1</v>
-      </c>
-      <c r="I52" s="6">
-        <v>1</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L52" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Jones', 'Jones@email.com.br', '34076875915', '1436', '2008-09-11', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Jones', 'jones@adm.com.br', '34076875915', '1436', '2008-09-11', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2598,224 +2598,51 @@
       <c r="B53" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>Kronos@email.com.br</v>
+      <c r="C53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>kronos@adm.com.br</v>
       </c>
       <c r="D53" s="3">
         <v>33756961168</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>2336</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" s="6">
-        <v>1</v>
-      </c>
-      <c r="I53" s="6">
-        <v>1</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L53" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Kronos', 'Kronos@email.com.br', '33756961168', '2336', '1999-12-27', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
+      <c r="G53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `ci_admin`.`user` (`id`, `nome`, `email`, `cpf`, `crm`, `dt_nascimento`, `senha`, `tipo`, `status`) VALUES (default, 'Kronos', 'kronos@adm.com.br', '33756961168', '2336', '1999-12-27', 'e10adc3949ba59abbe56e057f20f883e', '1', '1');</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D54" s="3"/>
-      <c r="E54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="E54" s="5"/>
+      <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D55" s="3"/>
-      <c r="E55" s="6"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D56" s="3"/>
-      <c r="E56" s="6"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D57" s="3"/>
-      <c r="E57" s="6"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D58" s="3"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="3"/>
+      <c r="E58" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2823,8 +2650,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" display="fulano1@adm.com"/>
-    <hyperlink ref="C6:C9" r:id="rId2" display="fulano1@adm.com"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C6:C53" r:id="rId3" display="fulano1@adm.com"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
